--- a/test-data/related-resources-data.xlsx
+++ b/test-data/related-resources-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/popkhadzeg/eclipse-workspace/cgov-digital-platform-qa/test-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B343591C-1F21-C841-986A-948E7B521A93}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C1AB35-5041-2B43-AFA9-5FC0F3C066BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4280" yWindow="2760" windowWidth="28800" windowHeight="16140" activeTab="1" xr2:uid="{112BCE41-1B7B-AF44-BEF2-07A92CFC037C}"/>
+    <workbookView xWindow="1940" yWindow="1740" windowWidth="28800" windowHeight="16140" xr2:uid="{112BCE41-1B7B-AF44-BEF2-07A92CFC037C}"/>
   </bookViews>
   <sheets>
     <sheet name="pages_with_related_resources" sheetId="1" r:id="rId1"/>
@@ -101,18 +101,26 @@
     <t>news-events/cancer-currents-blog/2019/vitamin-d-supplement-cancer-prevention</t>
   </si>
   <si>
-    <t>espanol/node/116/2019/vitamina-d-complemento-cancer-prevencion</t>
-  </si>
-  <si>
     <t>news-events/press-releases/2019/deep-learning-cervical-cancer-screening</t>
+  </si>
+  <si>
+    <t>espanol/node/146/2019/vitamina-d-complemento-cancer-prevencion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -140,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -149,7 +157,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -468,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ABDEF67-3BF3-604C-97A8-A43819B8E79D}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -479,14 +488,14 @@
     <col min="3" max="3" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -514,7 +523,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -576,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E4A3B0B-8B0F-6546-A344-A90113573E35}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -587,14 +596,14 @@
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -633,7 +642,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -652,7 +661,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -663,17 +672,17 @@
     <col min="5" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -777,7 +786,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>

--- a/test-data/related-resources-data.xlsx
+++ b/test-data/related-resources-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/popkhadzeg/eclipse-workspace/cgov-digital-platform-qa/test-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C1AB35-5041-2B43-AFA9-5FC0F3C066BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192C63CC-C162-1A4A-B8A4-6BF639B0BF2B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="1740" windowWidth="28800" windowHeight="16140" xr2:uid="{112BCE41-1B7B-AF44-BEF2-07A92CFC037C}"/>
+    <workbookView xWindow="1940" yWindow="1740" windowWidth="28800" windowHeight="16140" activeTab="2" xr2:uid="{112BCE41-1B7B-AF44-BEF2-07A92CFC037C}"/>
   </bookViews>
   <sheets>
     <sheet name="pages_with_related_resources" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
     <t>news-events/press-releases/2019/deep-learning-cervical-cancer-screening</t>
   </si>
   <si>
-    <t>espanol/node/146/2019/vitamina-d-complemento-cancer-prevencion</t>
+    <t>espanol/news-events/cancer-currents-blog/2019/vitamina-d-complemento-cancer-prevencion</t>
   </si>
 </sst>
 </file>
@@ -477,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ABDEF67-3BF3-604C-97A8-A43819B8E79D}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -660,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559EFC9A-164C-8144-9EB0-75C1F6F01408}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/test-data/related-resources-data.xlsx
+++ b/test-data/related-resources-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/popkhadzeg/eclipse-workspace/cgov-digital-platform-qa/test-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192C63CC-C162-1A4A-B8A4-6BF639B0BF2B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817EB056-8F74-D640-83DA-6DF32C3B283C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="1740" windowWidth="28800" windowHeight="16140" activeTab="2" xr2:uid="{112BCE41-1B7B-AF44-BEF2-07A92CFC037C}"/>
+    <workbookView xWindow="41400" yWindow="1660" windowWidth="28800" windowHeight="16140" activeTab="2" xr2:uid="{112BCE41-1B7B-AF44-BEF2-07A92CFC037C}"/>
   </bookViews>
   <sheets>
     <sheet name="pages_with_related_resources" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
     <t>news-events/press-releases/2019/deep-learning-cervical-cancer-screening</t>
   </si>
   <si>
-    <t>espanol/news-events/cancer-currents-blog/2019/vitamina-d-complemento-cancer-prevencion</t>
+    <t>espanol/noticias/temas-y-relatos-blog/2019/vitamina-d-complemento-cancer-prevencion</t>
   </si>
 </sst>
 </file>
@@ -148,12 +148,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -478,7 +477,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -488,14 +487,14 @@
     <col min="3" max="3" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -586,7 +585,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -596,14 +595,14 @@
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -619,7 +618,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3" t="s">
@@ -630,7 +629,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4" t="s">
@@ -641,7 +640,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>24</v>
       </c>
       <c r="B5" t="s">
@@ -661,28 +660,28 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection sqref="A1:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="82.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -690,7 +689,7 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>3</v>
       </c>
       <c r="C2" t="s">
@@ -704,7 +703,7 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" t="s">
@@ -718,7 +717,7 @@
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" t="s">
@@ -732,7 +731,7 @@
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>0</v>
       </c>
       <c r="C5" t="s">
@@ -746,7 +745,7 @@
       <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>1</v>
       </c>
       <c r="C6" t="s">
@@ -760,7 +759,7 @@
       <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>2</v>
       </c>
       <c r="C7" t="s">
@@ -774,7 +773,7 @@
       <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>2</v>
       </c>
       <c r="C8" t="s">
@@ -788,7 +787,7 @@
       <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>0</v>
       </c>
       <c r="C9" t="s">
